--- a/data/income_statement/2digits/size/86_IS_LARGE.xlsx
+++ b/data/income_statement/2digits/size/86_IS_LARGE.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>86-Human health activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>86-Human health activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,260 +841,295 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4165668.27032</v>
+        <v>4058429.7247</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>5040133.23025</v>
+        <v>4868187.134629999</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>6874894.68229</v>
+        <v>6536195.64337</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>8548747.804740001</v>
+        <v>8303392.879349999</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>9731301.935719999</v>
+        <v>10017166.62679</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>12035923.5031</v>
+        <v>11933993.86079</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>14213738.58345</v>
+        <v>14552463.00266</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>16544225.98804</v>
+        <v>16094175.60294</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>19641163.91528</v>
+        <v>19095239.71514</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>23882792.84088</v>
+        <v>23881042.57887</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>30243659.98132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>30084985.55486</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>33883686.871</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>4087314.22124</v>
+        <v>3982861.92089</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>4906241.472279999</v>
+        <v>4741147.17462</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>6755457.796320001</v>
+        <v>6440782.93975</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>8403245.203500001</v>
+        <v>8172759.88438</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>9532628.749150001</v>
+        <v>9833306.137710001</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>11789825.00534</v>
+        <v>11713480.23858</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>13850515.18399</v>
+        <v>14206331.56037</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>16084348.22757</v>
+        <v>15673742.553</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>19010523.62855</v>
+        <v>18497440.74341</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>22991737.15279</v>
+        <v>22991176.52696</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>28861405.20471</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>28778215.86975</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>32277667.25</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>1956.60188</v>
+        <v>1094.38555</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>35982.32384</v>
+        <v>32727.37405</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>19838.21163</v>
+        <v>3291.55295</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>20523.31991</v>
+        <v>13567.43866</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>19176.08915</v>
+        <v>12466.98437</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>19510.14148</v>
+        <v>13168.82201</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>84856.25241000002</v>
+        <v>77615.55882000001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>32859.49421</v>
+        <v>22862.25062</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>110600.37627</v>
+        <v>109942.81409</v>
       </c>
       <c r="L7" s="48" t="n">
         <v>243596.85101</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>472491.40039</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>398716.98593</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>711741.353</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>76397.44720000001</v>
+        <v>74473.41826000001</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>97909.43413000001</v>
+        <v>94312.58596</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>99598.67434</v>
+        <v>92121.15067</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>124979.28133</v>
+        <v>117065.55631</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>179497.09742</v>
+        <v>171393.50471</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>226588.35628</v>
+        <v>207344.8002</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>278367.14705</v>
+        <v>268515.8834699999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>427018.2662600001</v>
+        <v>397570.79932</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>520039.91046</v>
+        <v>487856.15764</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>647458.8370800001</v>
+        <v>646269.2008999999</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>909763.37622</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>908052.69918</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>894278.268</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>152995.3072</v>
+        <v>150420.82564</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>152226.60412</v>
+        <v>151043.864</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>178024.81701</v>
+        <v>173776.43357</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>304702.98407</v>
+        <v>303604.99115</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>203853.96665</v>
+        <v>219481.3759</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>158106.29583</v>
+        <v>154704.8807</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>243865.2244</v>
+        <v>243577.90496</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>284025.29399</v>
+        <v>279965.37129</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>337843.3511</v>
+        <v>334713.65438</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>431006.24133</v>
+        <v>430890.12531</v>
       </c>
       <c r="M9" s="47" t="n">
         <v>610386.6172199999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="47" t="n">
+        <v>712578.883</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>123403.09607</v>
+        <v>120830.51848</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>136820.57515</v>
+        <v>135779.97479</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>163015.05066</v>
+        <v>160392.11507</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>276815.4365599999</v>
+        <v>275739.82411</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>182066.15425</v>
+        <v>197693.5635</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>115202.24706</v>
+        <v>111813.37753</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>158628.90849</v>
+        <v>157469.76929</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>170953.33532</v>
+        <v>167029.1728</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>210145.42306</v>
+        <v>207271.76258</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>276828.71728</v>
+        <v>276712.60126</v>
       </c>
       <c r="M10" s="48" t="n">
         <v>429443.31505</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="48" t="n">
+        <v>510944.516</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>27535.44758</v>
+        <v>27533.54361</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>13928.82886</v>
+        <v>13913.35896</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>11385.48228</v>
+        <v>10070.69556</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>20916.40989</v>
+        <v>20898.54831</v>
       </c>
       <c r="G11" s="48" t="n">
         <v>18316.38895</v>
@@ -1202,13 +1138,13 @@
         <v>39719.27475</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>72184.93308</v>
+        <v>72384.38857</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>101261.42039</v>
+        <v>101125.66021</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>115647.84733</v>
+        <v>115429.90445</v>
       </c>
       <c r="L11" s="48" t="n">
         <v>144705.37825</v>
@@ -1216,362 +1152,412 @@
       <c r="M11" s="48" t="n">
         <v>173182.7722</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>189388.614</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>2056.76355</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>1477.20011</v>
+        <v>1350.53025</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>3624.28407</v>
+        <v>3313.62294</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>6971.13762</v>
+        <v>6966.618729999999</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>3471.42345</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>3184.77402</v>
+        <v>3172.22842</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>13051.38283</v>
+        <v>13723.7471</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>11810.53828</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>12050.08071</v>
+        <v>12011.98735</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>9472.145799999998</v>
+        <v>9472.1458</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>7760.52997</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>12245.753</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4012672.96312</v>
+        <v>3908008.89906</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4887906.62613</v>
+        <v>4717143.270629999</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>6696869.86528</v>
+        <v>6362419.2098</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>8244044.82067</v>
+        <v>7999787.8882</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>9527447.969070002</v>
+        <v>9797685.25089</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>11877817.20727</v>
+        <v>11779288.98009</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>13969873.35905</v>
+        <v>14308885.0977</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>16260200.69405</v>
+        <v>15814210.23165</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>19303320.56418</v>
+        <v>18760526.06076</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>23451786.59955</v>
+        <v>23450152.45356</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>29633273.3641</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>29474598.93764</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>33171107.988</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3317993.66828</v>
+        <v>3217744.76719</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>3993405.17012</v>
+        <v>3849357.87196</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>5437694.373000001</v>
+        <v>5153181.56411</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>6810247.92501</v>
+        <v>6615017.480879999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>7782037.68995</v>
+        <v>8049887.42532</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>9685346.789650001</v>
+        <v>9617122.500600001</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>11526635.0084</v>
+        <v>11815231.83868</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>13602572.74372</v>
+        <v>13236216.00633</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>16189178.99472</v>
+        <v>15774919.61381</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>19592543.74367</v>
+        <v>19592543.43604</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>24452933.18442</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24306051.90701</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26822443.226</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>60894.5319</v>
+        <v>60128.23968</v>
       </c>
       <c r="D15" s="48" t="n">
         <v>50530.42630000001</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>82457.86403</v>
+        <v>82399.29264</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>25913.59379</v>
+        <v>25901.23035</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>71199.86192</v>
+        <v>63901.89456</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>96235.523</v>
+        <v>92679.95624</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>80831.704</v>
+        <v>73970.01545000001</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>36315.21113</v>
+        <v>30092.79518</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>146337.0623</v>
+        <v>146326.97903</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>219426.68114</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>120833.74949</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>119745.31963</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>228578.201</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>51606.91984</v>
+        <v>50638.88499999999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>85192.74599</v>
+        <v>70728.81393</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>117110.79653</v>
+        <v>102494.55233</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>130103.07773</v>
+        <v>126647.77672</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>138951.41541</v>
+        <v>124611.55848</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>69114.75875000001</v>
+        <v>59224.223</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>311719.90367</v>
+        <v>299519.16532</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>127898.39765</v>
+        <v>123784.93753</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>247135.68396</v>
+        <v>220799.19606</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>218962.83284</v>
+        <v>218962.52521</v>
       </c>
       <c r="M16" s="48" t="n">
         <v>271393.7705</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="48" t="n">
+        <v>368201.853</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>3202176.46379</v>
+        <v>3103661.88976</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>3854904.24004</v>
+        <v>3725642.4776</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>5235337.853490001</v>
+        <v>4966018.546809999</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>6640957.57041</v>
+        <v>6450219.92584</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>7551427.86801</v>
+        <v>7840217.23943</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>9311898.882139999</v>
+        <v>9258260.695600001</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>11117038.84001</v>
+        <v>11425621.22834</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>13426116.97139</v>
+        <v>13072020.09249</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>15787492.51466</v>
+        <v>15399663.83102</v>
       </c>
       <c r="L17" s="48" t="n">
         <v>19148627.5311</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>24047037.94346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>23901263.59675</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>26221472.046</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3315.752750000001</v>
+        <v>3315.75275</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>2777.75779</v>
+        <v>2456.15413</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>2787.85895</v>
+        <v>2269.17233</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>13273.68308</v>
+        <v>12248.54797</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>20458.54461</v>
+        <v>21156.73285</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>208097.62576</v>
+        <v>206957.62576</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>17044.56072</v>
+        <v>16121.42957</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>12242.16355</v>
+        <v>10318.18113</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>8213.7338</v>
+        <v>8129.6077</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>5526.698590000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>13667.72097</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13649.22013</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>4191.126</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>694679.29484</v>
+        <v>690264.1318699999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>894501.45601</v>
+        <v>867785.3986699999</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>1259175.49228</v>
+        <v>1209237.64569</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>1433796.89566</v>
+        <v>1384770.40732</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>1745410.27912</v>
+        <v>1747797.82557</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>2192470.41762</v>
+        <v>2162166.47949</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>2443238.35065</v>
+        <v>2493653.25902</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2657627.95033</v>
+        <v>2577994.22532</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>3114141.56946</v>
+        <v>2985606.44695</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>3859242.85588</v>
+        <v>3857609.01752</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>5180340.17968</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>5168547.03063</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>6348664.762</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>518968.96009</v>
+        <v>495216.68597</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>706310.6551999999</v>
+        <v>673221.00485</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>890480.0031199999</v>
+        <v>829036.0662299999</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>947739.15779</v>
+        <v>909099.04737</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>1088260.03843</v>
+        <v>1087448.94942</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>1330977.98255</v>
+        <v>1273472.47161</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>1519324.37194</v>
+        <v>1533254.73001</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>1678493.28023</v>
+        <v>1601681.12798</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1855254.75346</v>
+        <v>1776650.07245</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>2178443.4996</v>
+        <v>2174489.0725</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2838980.43824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2814152.20467</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2800196.964</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
@@ -1589,10 +1575,10 @@
         <v>237.07187</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>3577.10657</v>
+        <v>3267.83906</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>1105.02112</v>
+        <v>0</v>
       </c>
       <c r="J21" s="48" t="n">
         <v>987.82907</v>
@@ -1606,185 +1592,210 @@
       <c r="M21" s="48" t="n">
         <v>2333.3974</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="48" t="n">
+        <v>2429.902</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>57136.67645000001</v>
+        <v>52471.68925</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>91293.72489999999</v>
+        <v>86719.10938000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>97696.75874</v>
+        <v>92089.95621999999</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>145221.52714</v>
+        <v>137076.37283</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>184494.79164</v>
+        <v>191624.25244</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>212606.67746</v>
+        <v>205521.64103</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>233938.21718</v>
+        <v>236924.35565</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>251090.59079</v>
+        <v>246129.41091</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>305061.40424</v>
+        <v>300533.43261</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>395578.02413</v>
+        <v>395460.39012</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>523561.40437</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>523149.76368</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>493317.13</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>461832.28364</v>
+        <v>442744.9967200001</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>615016.9303</v>
+        <v>586501.89547</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>792704.90515</v>
+        <v>736867.77078</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>801790.87549</v>
+        <v>771295.91938</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>903528.17492</v>
+        <v>895587.62511</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1114794.19852</v>
+        <v>1064682.99152</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1284281.13364</v>
+        <v>1296330.37436</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1426414.86037</v>
+        <v>1354563.888</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>1549003.68995</v>
+        <v>1474926.98057</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>1780378.42918</v>
+        <v>1776541.63609</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>2313085.63647</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>2288669.04359</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>2304449.932</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>175710.33475</v>
+        <v>195047.4459</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>188190.80081</v>
+        <v>194564.39382</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>368695.48916</v>
+        <v>380201.57946</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>486057.73787</v>
+        <v>475671.3599500001</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>657150.24069</v>
+        <v>660348.87615</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>861492.43507</v>
+        <v>888694.00788</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>923913.9787099999</v>
+        <v>960398.5290099999</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>979134.6701</v>
+        <v>976313.09734</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>1258886.816</v>
+        <v>1208956.3745</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1680799.35628</v>
+        <v>1683119.94502</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>2341359.74144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>2354394.82596</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>3548467.798</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>290453.82809</v>
+        <v>271949.02064</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>324098.69155</v>
+        <v>310733.22692</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>295339.33721</v>
+        <v>249075.37388</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>429577.11056</v>
+        <v>403971.31028</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>391960.04344</v>
+        <v>398399.62284</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>617717.9876000001</v>
+        <v>589473.0107500001</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>952873.7352499999</v>
+        <v>953955.7805899999</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>931269.0757200001</v>
+        <v>876393.65354</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>1599685.08171</v>
+        <v>1505643.08597</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>4017729.44628</v>
+        <v>3898829.16393</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3118364.16912</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2938990.68101</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>2985053.047</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>19712.07552</v>
+        <v>4868.82434</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>6780.54963</v>
+        <v>2550.08391</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>9105.32475</v>
+        <v>5789.06955</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>7726.65937</v>
+        <v>4662.43247</v>
       </c>
       <c r="G26" s="48" t="n">
         <v>885.81111</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>845.9099800000001</v>
+        <v>818.89792</v>
       </c>
       <c r="I26" s="48" t="n">
         <v>12639.60756</v>
@@ -1793,7 +1804,7 @@
         <v>7467.61893</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>14885.72009</v>
+        <v>9022.7176</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>19743.61408</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>26713.64786</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>18285.383</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>49966.22683</v>
@@ -1814,7 +1830,7 @@
         <v>51543.01678</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>33318.47159</v>
+        <v>20743.91488</v>
       </c>
       <c r="F27" s="48" t="n">
         <v>26015.10133</v>
@@ -1832,58 +1848,68 @@
         <v>39370.64889</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>31677.95243</v>
+        <v>30764.94067</v>
       </c>
       <c r="L27" s="48" t="n">
         <v>79177.23327000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>43818.91656000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>43615.04859000001</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>36803.21</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>23160.90126</v>
+        <v>22507.8977</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>42462.52288</v>
+        <v>40904.6216</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>70584.09539</v>
+        <v>66266.97769</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>94564.63825000002</v>
+        <v>91003.7613</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>88727.55096000001</v>
+        <v>86867.41589</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>160176.02634</v>
+        <v>150440.01065</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>225309.75283</v>
+        <v>218536.38776</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>301486.04429</v>
+        <v>287833.73825</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>389986.65373</v>
+        <v>344731.01696</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>671201.1847000001</v>
+        <v>624884.38777</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>870091.31239</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>869693.21132</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>872052.9790000001</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>140.50622</v>
@@ -1895,22 +1921,22 @@
         <v>532.20964</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>314.65184</v>
+        <v>314.64199</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>599.51423</v>
+        <v>149.95706</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>263.81688</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>42.20947</v>
+        <v>50.12719999999999</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>155.82505</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>404.95642</v>
+        <v>221.09376</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>847.7467800000001</v>
@@ -1918,20 +1944,25 @@
       <c r="M29" s="48" t="n">
         <v>660.59408</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>1081.653</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>3798.63747</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>16963.61642</v>
+        <v>16920.509</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>3430.69259</v>
+        <v>3423.11607</v>
       </c>
       <c r="F30" s="48" t="n">
         <v>4621.18399</v>
@@ -1940,55 +1971,60 @@
         <v>4044.266869999999</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>6471.24652</v>
+        <v>6462.80051</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>36274.36915</v>
+        <v>36377.34183</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>9528.74675</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>29997.4</v>
+        <v>29987.80372</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>6145.907800000001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>8571.498810000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>8360.56769</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>19096.362</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1304.18705</v>
+        <v>877.57907</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>2293.82236</v>
+        <v>2288.98511</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>772.6952700000001</v>
+        <v>766.6917900000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>1966.62731</v>
+        <v>1961.92849</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>785.41947</v>
+        <v>785.89396</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1360.97774</v>
+        <v>1324.65265</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>16072.44515</v>
+        <v>16077.34015</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>8270.44731</v>
+        <v>8214.25308</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>22937.55826</v>
+        <v>22418.20572</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>6886.18396</v>
@@ -1996,59 +2032,69 @@
       <c r="M31" s="48" t="n">
         <v>9759.555779999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>69835.651</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>164671.58387</v>
+        <v>162254.88882</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>180556.56164</v>
+        <v>173498.28157</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>133520.67689</v>
+        <v>116713.15443</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>236557.13655</v>
+        <v>221024.92727</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>186054.89176</v>
+        <v>191127.50048</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>349519.47139</v>
+        <v>331931.24789</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>490407.60193</v>
+        <v>491392.99757</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>435269.99311</v>
+        <v>400533.62601</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>925320.5504299999</v>
+        <v>892012.03076</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>2975648.84606</v>
+        <v>2903138.51268</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1919965.4655</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1742106.53948</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1667517.225</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>1196.80291</v>
+        <v>1179.47191</v>
       </c>
       <c r="D33" s="48" t="n">
         <v>802.51527</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>1346.83813</v>
+        <v>1346.33513</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>6591.90234</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>12789.53222</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>27957.843</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,116 +2164,131 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>26502.90696</v>
+        <v>26354.98828</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>22693.48503</v>
+        <v>22222.61214</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>42728.33296</v>
+        <v>33493.9047</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>51219.20958</v>
+        <v>47775.4311</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>68940.31604000001</v>
+        <v>72616.50447</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>81956.53212</v>
+        <v>81107.57762000001</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>112158.83259</v>
+        <v>118913.06195</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>123385.87171</v>
+        <v>116955.3169</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>164205.36719</v>
+        <v>156216.35362</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>222409.5044</v>
+        <v>222336.35236</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>225993.64592</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>225291.98399</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>272410.241</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>159557.87557</v>
+        <v>156476.1474</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>155440.413</v>
+        <v>150884.24244</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>297136.97252</v>
+        <v>257925.5375</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>191420.56265</v>
+        <v>179102.21409</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>318953.92142</v>
+        <v>369939.06382</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>422335.01904</v>
+        <v>410032.82324</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>701497.11897</v>
+        <v>709441.12749</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>836686.8165200001</v>
+        <v>781995.24123</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>1349356.39177</v>
+        <v>1288327.53002</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3514868.19391</v>
+        <v>3424659.95141</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2398887.45739</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2119127.86034</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>2380191.85</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>6539.95236</v>
+        <v>6454.32522</v>
       </c>
       <c r="D37" s="48" t="n">
         <v>7008.36088</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>7227.67085</v>
+        <v>7131.00279</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>10531.51887</v>
+        <v>9680.694890000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>11256.22893</v>
+        <v>9964.122220000001</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>12835.45539</v>
+        <v>12608.06593</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>13324.26871</v>
+        <v>13304.23744</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>16589.76248</v>
+        <v>16400.70927</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>20433.45575</v>
+        <v>20321.08908</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>29704.1759</v>
@@ -2230,50 +2296,60 @@
       <c r="M37" s="48" t="n">
         <v>43254.26967</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>26408.123</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>9713.821380000001</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>11054.8073</v>
+        <v>11039.96766</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>16164.72067</v>
+        <v>16050.09665</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>21508.99329</v>
+        <v>17821.07433</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>14037.78951</v>
+        <v>14284.38734</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>48334.47332</v>
+        <v>48831.92988</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>51978.70265</v>
+        <v>52207.4812</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>89963.75287000001</v>
+        <v>89899.83480000001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>43556.30525</v>
+        <v>43391.00414</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>44315.64699</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>44102.61035</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>43907.9359</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>44914.055</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>35.3462</v>
@@ -2308,59 +2384,69 @@
       <c r="M39" s="48" t="n">
         <v>13072.82484</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>5438.979</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>129805.05217</v>
+        <v>127000.27562</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>117635.2406</v>
+        <v>113115.41655</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>255612.52139</v>
+        <v>216747.05024</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>117316.87244</v>
+        <v>110003.38024</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>271117.4798499999</v>
+        <v>316940.1721</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>318715.88666</v>
+        <v>304509.69297</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>587004.72196</v>
+        <v>585829.71062</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>676252.10389</v>
+        <v>622065.5320499999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1221173.08795</v>
+        <v>1168505.42558</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3349237.08938</v>
+        <v>3259028.84688</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2213450.78712</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1933885.86456</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>2178424.532</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>1844.30908</v>
+        <v>1844.30608</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>1928.98307</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>6728.25142</v>
+        <v>6725.45442</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>3797.2381</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>22841.01917</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>17085.301</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>1.0363</v>
@@ -2408,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="48" t="n">
-        <v>2.85189</v>
+        <v>1644.95083</v>
       </c>
       <c r="I42" s="48" t="n">
         <v>0</v>
@@ -2425,155 +2516,175 @@
       <c r="M42" s="48" t="n">
         <v>0.05916</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>11618.35808</v>
+        <v>11427.0366</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>15460.86252</v>
+        <v>15439.35565</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>11399.73629</v>
+        <v>11267.8615</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>34469.33252</v>
+        <v>34003.2191</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>18725.18568</v>
+        <v>24933.14471</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>32660.17632</v>
+        <v>32652.00817</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>42961.86182</v>
+        <v>51872.1344</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>48622.23563</v>
+        <v>48370.20346</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>43620.98301</v>
+        <v>35537.45141</v>
       </c>
       <c r="L43" s="48" t="n">
         <v>54131.45713</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>62165.88708</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>62165.88704000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>107920.86</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>224719.28425</v>
+        <v>217903.75797</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>260114.46447</v>
+        <v>240128.50194</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>456149.51682</v>
+        <v>402677.06777</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>351559.14167</v>
+        <v>325019.20435</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>591201.5787300001</v>
+        <v>580989.24832</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>737147.47775</v>
+        <v>649539.19776</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1084091.96025</v>
+        <v>1097600.00481</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1323492.9957</v>
+        <v>1229924.53958</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>1429344.05363</v>
+        <v>1324240.35829</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2377268.9865</v>
+        <v>2369063.03253</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>2471619.35877</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>2408432.080589999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2690772.604</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>175103.94764</v>
+        <v>168362.44402</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>192744.19937</v>
+        <v>172758.23684</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>292641.33392</v>
+        <v>244357.98907</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>291541.13641</v>
+        <v>265561.43995</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>389212.22925</v>
+        <v>378999.89884</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>590721.5546700001</v>
+        <v>503747.83864</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>727436.6205399999</v>
+        <v>745307.7702799999</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>918832.4855399999</v>
+        <v>858138.8524499999</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>1071964.75786</v>
+        <v>987550.0795499999</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1631113.86055</v>
+        <v>1622907.90658</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>2077679.52249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>2014492.24431</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2032173.79</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>49615.33661</v>
+        <v>49541.31395</v>
       </c>
       <c r="D46" s="48" t="n">
         <v>67370.2651</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>163508.1829</v>
+        <v>158319.0787</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>60018.00526000001</v>
+        <v>59457.7644</v>
       </c>
       <c r="G46" s="48" t="n">
         <v>201989.34948</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>146425.92308</v>
+        <v>145791.35912</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>356655.33971</v>
+        <v>352292.23453</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>404660.51016</v>
+        <v>371785.68713</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>357379.29577</v>
+        <v>336690.2787399999</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>746155.1259499999</v>
@@ -2581,116 +2692,131 @@
       <c r="M46" s="48" t="n">
         <v>393939.83628</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>658598.814</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>81887.00301999999</v>
+        <v>92616.56117</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>96734.61488999998</v>
+        <v>114284.87636</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>-89251.66297</v>
+        <v>-31325.65193</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>372655.14411</v>
+        <v>375521.25179</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>138954.78398</v>
+        <v>107820.18685</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>319727.92588</v>
+        <v>418594.99763</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>91198.63473999999</v>
+        <v>107313.1773</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>-249776.0664</v>
+        <v>-159213.02993</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>79871.45231000001</v>
+        <v>102031.57216</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-193608.37785</v>
+        <v>-211773.87499</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>589217.0944000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>765825.5660400001</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>1462556.391</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>55799.6053</v>
+        <v>53960.33192</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>82296.99198000001</v>
+        <v>71964.19482999999</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>70400.39945</v>
+        <v>61258.3807</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>70874.89693</v>
+        <v>51969.98558</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>103471.95274</v>
+        <v>97961.81925</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>153310.91215</v>
+        <v>149422.77967</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>172019.96104</v>
+        <v>144411.05212</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>329107.02539</v>
+        <v>252801.61611</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>385663.24179</v>
+        <v>169324.61496</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>309171.57686</v>
+        <v>309171.1822799999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>271724.99765</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>268762.99225</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>361305.095</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>659.53288</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>1853.65764</v>
+        <v>1853.42266</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>1400.66072</v>
+        <v>1397.80503</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>2496.8331</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>6471.77227</v>
+        <v>6471.253559999999</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>7260.44428</v>
+        <v>7237.5802</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>4286.56004</v>
+        <v>4342.723400000001</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>25572.39242</v>
+        <v>25539.52217</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>8181.825589999999</v>
+        <v>8181.633620000001</v>
       </c>
       <c r="L49" s="48" t="n">
         <v>7560.8188</v>
@@ -2698,89 +2824,104 @@
       <c r="M49" s="48" t="n">
         <v>14562.43658</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>9632.245999999999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>55140.07242</v>
+        <v>53300.79904000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>80443.33434</v>
+        <v>70110.77217</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>68999.73872999998</v>
+        <v>59860.57567</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>68378.06383</v>
+        <v>49473.15248</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>97000.18046999999</v>
+        <v>91490.56569</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>146050.46787</v>
+        <v>142185.19947</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>167733.401</v>
+        <v>140068.32872</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>303534.63297</v>
+        <v>227262.09394</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>377481.4162</v>
+        <v>161142.98134</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>301610.75806</v>
+        <v>301610.3634799999</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>257162.56107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>254200.55567</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>351672.849</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>53571.21505</v>
+        <v>53252.73714</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>98637.78212999999</v>
+        <v>97604.13228000001</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>360814.4555600001</v>
+        <v>323784.91691</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>159011.57268</v>
+        <v>127863.86734</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>146961.92833</v>
+        <v>146349.17833</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>320565.86841</v>
+        <v>280854.74436</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>187219.30372</v>
+        <v>168190.6512</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>351102.10275</v>
+        <v>307219.00216</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>231569.13359</v>
+        <v>224631.76824</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>481683.82623</v>
+        <v>481683.82611</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>552275.36161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>550168.18209</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>595763.7560000001</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>6561.35973</v>
@@ -2789,25 +2930,25 @@
         <v>5914.332689999999</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>21739.58594</v>
+        <v>20926.87967</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>37080.90651000001</v>
+        <v>17190.69714</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>7305.278069999999</v>
+        <v>7781.262409999999</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>12968.24431</v>
+        <v>9721.68741</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>7067.93759</v>
+        <v>5444.56516</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>11929.14847</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>4962.19071</v>
+        <v>3886.65238</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>26166.03322</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>24456.40945</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>9113.097</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5935.637220000001</v>
+        <v>5887.875940000001</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>18157.32491</v>
+        <v>18112.88942</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>26898.17339</v>
+        <v>26578.69944</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>24206.91053</v>
+        <v>24115.01137</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>31942.37404</v>
+        <v>32267.15523</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>17946.48896000001</v>
+        <v>17568.74379</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>23694.74856</v>
+        <v>23624.97449</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>30872.0309</v>
+        <v>26752.43895</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>38617.79383</v>
+        <v>38426.96191</v>
       </c>
       <c r="L53" s="48" t="n">
         <v>48891.02492</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>70151.90543</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>70151.90543000001</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>68000.622</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>41074.2181</v>
+        <v>40803.50147</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>74566.12453</v>
+        <v>73576.91017</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>312176.69623</v>
+        <v>276279.3378</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>97723.75564000002</v>
+        <v>86558.15883</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>107714.27622</v>
+        <v>106300.76069</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>289651.13514</v>
+        <v>253564.31316</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>156456.61757</v>
+        <v>139121.11155</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>308300.92338</v>
+        <v>268537.41474</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>187989.14905</v>
+        <v>182318.15395</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>406626.76809</v>
+        <v>406626.76797</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>457667.04673</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>455559.86721</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>518650.037</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>84115.39327000002</v>
+        <v>93324.15594999999</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>80393.82474</v>
+        <v>88644.93891</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-379665.71908</v>
+        <v>-293852.18814</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>284518.46836</v>
+        <v>299627.37003</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>95464.80839000002</v>
+        <v>59432.82777</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>152472.96962</v>
+        <v>287163.03294</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>75999.29206000001</v>
+        <v>83533.57822</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>-271771.14376</v>
+        <v>-213630.41598</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>233965.56051</v>
+        <v>46724.41888</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-366120.62722</v>
+        <v>-384286.51882</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>308666.73044</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>484420.3762000001</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>1228097.73</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>38497.88443</v>
+        <v>37210.12234</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>47553.10707</v>
+        <v>46496.07024</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>48626.34385</v>
+        <v>44970.97824</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>63117.61099</v>
+        <v>59361.80194</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>60164.18216</v>
+        <v>56775.82412</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>82344.26114</v>
+        <v>79128.58241</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>73434.6024</v>
+        <v>73969.77142999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>65850.40031</v>
+        <v>62038.58485</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>91616.97481</v>
+        <v>81229.7313</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>105719.44877</v>
+        <v>96326.73432999999</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>126706.09804</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>126718.74894</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>195793.799</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>45617.50884</v>
+        <v>56114.03361</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>32840.71767</v>
+        <v>42148.86867</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-428292.06293</v>
+        <v>-338823.16638</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>221400.85737</v>
+        <v>240265.56809</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>35300.62622999999</v>
+        <v>2657.003649999998</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>70128.70848</v>
+        <v>208034.45053</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2564.689659999996</v>
+        <v>9563.806790000002</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-337621.54407</v>
+        <v>-275669.00083</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>142348.5857</v>
+        <v>-34505.31242</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-471840.07599</v>
+        <v>-480613.2531500001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>181960.6324</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>357701.62726</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>1032303.931</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
+        <v>86</v>
+      </c>
+      <c r="D59" s="35" t="n">
         <v>102</v>
       </c>
-      <c r="D59" s="35" t="n">
-        <v>126</v>
-      </c>
       <c r="E59" s="35" t="n">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>180</v>
+        <v>146</v>
       </c>
       <c r="G59" s="35" t="n">
+        <v>167</v>
+      </c>
+      <c r="H59" s="35" t="n">
         <v>182</v>
       </c>
-      <c r="H59" s="35" t="n">
-        <v>202</v>
-      </c>
       <c r="I59" s="35" t="n">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>282</v>
+        <v>227</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>316</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>